--- a/Archetypes/family_archetypes.xlsx
+++ b/Archetypes/family_archetypes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C13CBA5-150B-4151-905F-F96F8A36AC54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD98642-B16F-4CF3-B011-901C212FD036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,8 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,15 +427,15 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1"/>
+      <selection activeCell="I1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -453,19 +454,19 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -477,21 +478,21 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -503,18 +504,18 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -526,15 +527,15 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
     </row>
@@ -551,10 +552,10 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -566,12 +567,12 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -583,12 +584,12 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -600,18 +601,18 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -623,19 +624,20 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Archetypes/family_archetypes.xlsx
+++ b/Archetypes/family_archetypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD98642-B16F-4CF3-B011-901C212FD036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB789C15-FAF9-467B-9D03-5044B38B6A18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="E1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
